--- a/Civilworks cost/Work Schedule/Sunamgonj Package 07/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Sunamgonj Package 07/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_List" sheetId="19" r:id="rId1"/>
@@ -3839,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6158,8 +6158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Civilworks cost/Work Schedule/Sunamgonj Package 07/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Sunamgonj Package 07/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_List" sheetId="19" r:id="rId1"/>
@@ -741,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,9 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -813,14 +810,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,9 +870,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,6 +880,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1381,7 +1384,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1404,7 +1407,7 @@
       <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1427,7 +1430,7 @@
       <c r="F3" s="4">
         <v>950</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1450,7 +1453,7 @@
       <c r="F4" s="4">
         <v>4151</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1519,7 +1522,7 @@
       <c r="F7" s="4">
         <v>68</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1655,7 +1658,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1666,7 +1669,7 @@
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -1678,7 +1681,7 @@
       <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1689,7 +1692,7 @@
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>17</v>
       </c>
       <c r="D3" s="4">
@@ -1698,10 +1701,10 @@
       <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>2670</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1712,7 +1715,7 @@
       <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>18</v>
       </c>
       <c r="D4" s="4">
@@ -1721,10 +1724,10 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>4795</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1735,7 +1738,7 @@
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>12</v>
       </c>
       <c r="D5" s="4">
@@ -1744,10 +1747,10 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>3563</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1758,7 +1761,7 @@
       <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="4">
@@ -1770,7 +1773,7 @@
       <c r="F6" s="4">
         <v>2655</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1781,7 +1784,7 @@
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1793,7 +1796,7 @@
       <c r="F7" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1804,7 +1807,7 @@
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>7</v>
       </c>
       <c r="D8" s="3">
@@ -1816,7 +1819,7 @@
       <c r="F8" s="3">
         <v>2052</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1827,7 +1830,7 @@
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>9</v>
       </c>
       <c r="D9" s="3">
@@ -1839,7 +1842,7 @@
       <c r="F9" s="3">
         <v>2524</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1850,7 +1853,7 @@
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>15</v>
       </c>
       <c r="D10" s="3">
@@ -1862,7 +1865,7 @@
       <c r="F10" s="3">
         <v>1751</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1873,7 +1876,7 @@
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>13</v>
       </c>
       <c r="D11" s="3">
@@ -1885,7 +1888,7 @@
       <c r="F11" s="3">
         <v>361</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1896,7 +1899,7 @@
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>13</v>
       </c>
       <c r="D12" s="3">
@@ -1908,7 +1911,7 @@
       <c r="F12" s="3">
         <v>2457</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1919,7 +1922,7 @@
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>13</v>
       </c>
       <c r="D13" s="3">
@@ -1931,7 +1934,7 @@
       <c r="F13" s="3">
         <v>480</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1942,7 +1945,7 @@
       <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>13</v>
       </c>
       <c r="D14" s="3">
@@ -1954,7 +1957,7 @@
       <c r="F14" s="3">
         <v>4021</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1965,7 +1968,7 @@
       <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>13</v>
       </c>
       <c r="D15" s="3">
@@ -1977,7 +1980,7 @@
       <c r="F15" s="3">
         <v>13683</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1988,7 +1991,7 @@
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>7</v>
       </c>
       <c r="D16" s="3">
@@ -2000,21 +2003,21 @@
       <c r="F16" s="3">
         <v>1641</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="28">
         <v>7</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="28">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2023,111 +2026,111 @@
       <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="25"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="25"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="25"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="25"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="25"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="25"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="25"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="25"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="25"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="25"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2168,7 +2171,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2176,10 +2179,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -2191,7 +2194,7 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2199,10 +2202,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>9</v>
       </c>
       <c r="D3" s="4">
@@ -2211,22 +2214,22 @@
       <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1356</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>11</v>
       </c>
       <c r="D4" s="4">
@@ -2235,22 +2238,22 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2951</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>6</v>
       </c>
       <c r="D5" s="4">
@@ -2259,22 +2262,22 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1781</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>7</v>
       </c>
       <c r="D6" s="4">
@@ -2286,19 +2289,19 @@
       <c r="F6" s="4">
         <v>3917</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2310,7 +2313,7 @@
       <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2318,10 +2321,10 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
       <c r="D8" s="3">
@@ -2333,7 +2336,7 @@
       <c r="F8" s="4">
         <v>1482</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2341,10 +2344,10 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="3">
@@ -2356,7 +2359,7 @@
       <c r="F9" s="4">
         <v>1193</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2364,10 +2367,10 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>15</v>
       </c>
       <c r="D10" s="3">
@@ -2379,7 +2382,7 @@
       <c r="F10" s="4">
         <v>1022</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2387,10 +2390,10 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>9</v>
       </c>
       <c r="D11" s="3">
@@ -2402,7 +2405,7 @@
       <c r="F11" s="4">
         <v>268</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2410,10 +2413,10 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
       <c r="D12" s="3">
@@ -2425,7 +2428,7 @@
       <c r="F12" s="4">
         <v>1837</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2433,10 +2436,10 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>9</v>
       </c>
       <c r="D13" s="3">
@@ -2448,7 +2451,7 @@
       <c r="F13" s="4">
         <v>358</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2456,10 +2459,10 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>9</v>
       </c>
       <c r="D14" s="3">
@@ -2471,7 +2474,7 @@
       <c r="F14" s="4">
         <v>1851</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2479,10 +2482,10 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>9</v>
       </c>
       <c r="D15" s="3">
@@ -2491,10 +2494,10 @@
       <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>10005</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2502,10 +2505,10 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>5</v>
       </c>
       <c r="D16" s="3">
@@ -2517,7 +2520,7 @@
       <c r="F16" s="4">
         <v>1185</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2531,7 +2534,7 @@
       <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="28">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2540,41 +2543,41 @@
       <c r="F17" s="4">
         <v>100</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,7 +2618,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2623,10 +2626,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -2638,7 +2641,7 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2646,10 +2649,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>9</v>
       </c>
       <c r="D3" s="4">
@@ -2658,22 +2661,22 @@
       <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1356</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>11</v>
       </c>
       <c r="D4" s="4">
@@ -2682,22 +2685,22 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2951</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>6</v>
       </c>
       <c r="D5" s="4">
@@ -2706,22 +2709,22 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1781</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>7</v>
       </c>
       <c r="D6" s="4">
@@ -2733,19 +2736,19 @@
       <c r="F6" s="4">
         <v>3917</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2757,7 +2760,7 @@
       <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2765,10 +2768,10 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
       <c r="D8" s="3">
@@ -2780,7 +2783,7 @@
       <c r="F8" s="4">
         <v>1482</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2788,10 +2791,10 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="3">
@@ -2803,7 +2806,7 @@
       <c r="F9" s="4">
         <v>1193</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2811,10 +2814,10 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>15</v>
       </c>
       <c r="D10" s="3">
@@ -2826,7 +2829,7 @@
       <c r="F10" s="4">
         <v>1022</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2834,10 +2837,10 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>9</v>
       </c>
       <c r="D11" s="3">
@@ -2849,7 +2852,7 @@
       <c r="F11" s="4">
         <v>268</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2857,10 +2860,10 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
       <c r="D12" s="3">
@@ -2872,7 +2875,7 @@
       <c r="F12" s="4">
         <v>1837</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2880,10 +2883,10 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>9</v>
       </c>
       <c r="D13" s="3">
@@ -2895,7 +2898,7 @@
       <c r="F13" s="4">
         <v>358</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2903,10 +2906,10 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>9</v>
       </c>
       <c r="D14" s="3">
@@ -2915,10 +2918,10 @@
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>10005</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2926,10 +2929,10 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
       <c r="D15" s="3">
@@ -2941,7 +2944,7 @@
       <c r="F15" s="4">
         <v>1185</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2955,7 +2958,7 @@
       <c r="C16" s="3">
         <v>7</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="28">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2964,7 +2967,7 @@
       <c r="F16" s="4">
         <v>100</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3007,7 +3010,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3015,10 +3018,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -3038,10 +3041,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>15</v>
       </c>
       <c r="D3" s="3">
@@ -3050,7 +3053,7 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <v>3495</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -3061,10 +3064,10 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>17</v>
       </c>
       <c r="D4" s="3">
@@ -3073,7 +3076,7 @@
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <v>11251</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -3084,10 +3087,10 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>17</v>
       </c>
       <c r="D5" s="3">
@@ -3096,7 +3099,7 @@
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>3388</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -3107,10 +3110,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>17</v>
       </c>
       <c r="D6" s="3">
@@ -3119,7 +3122,7 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>9842</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -3150,52 +3153,52 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="25"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3237,7 +3240,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3245,10 +3248,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -3257,7 +3260,7 @@
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="39">
         <v>100</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -3268,10 +3271,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>30</v>
       </c>
       <c r="D3" s="3">
@@ -3280,7 +3283,7 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>5623</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -3291,10 +3294,10 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>36</v>
       </c>
       <c r="D4" s="3">
@@ -3303,7 +3306,7 @@
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>18105</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -3314,10 +3317,10 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>26</v>
       </c>
       <c r="D5" s="3">
@@ -3326,7 +3329,7 @@
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>5451</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -3337,10 +3340,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>26</v>
       </c>
       <c r="D6" s="3">
@@ -3349,7 +3352,7 @@
       <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>15836</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -3372,7 +3375,7 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="39">
         <v>100</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -3415,10 +3418,10 @@
       <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3426,10 +3429,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -3438,10 +3441,10 @@
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="39">
         <v>100</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3449,10 +3452,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>15</v>
       </c>
       <c r="D3" s="3">
@@ -3461,10 +3464,10 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>5551</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3472,10 +3475,10 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>27</v>
       </c>
       <c r="D4" s="3">
@@ -3484,10 +3487,10 @@
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>17871</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3495,10 +3498,10 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>27</v>
       </c>
       <c r="D5" s="3">
@@ -3507,10 +3510,10 @@
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>5380</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3518,10 +3521,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>27</v>
       </c>
       <c r="D6" s="3">
@@ -3530,10 +3533,10 @@
       <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>15632</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3553,10 +3556,10 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="39">
         <v>100</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3599,7 +3602,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3607,22 +3610,22 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="42">
         <v>7</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="33">
         <v>-1</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="43">
         <v>100</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3630,22 +3633,22 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="45">
         <v>15</v>
       </c>
-      <c r="D3" s="36">
-        <v>1</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="33">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="33">
         <v>3366</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3653,22 +3656,22 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="45">
         <v>30</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="33">
         <v>2</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="33">
         <v>11722</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="33" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3676,22 +3679,22 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="33">
         <v>7</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="33">
         <v>3</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="43">
         <v>100</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3734,7 +3737,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3742,10 +3745,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -3757,7 +3760,7 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3765,10 +3768,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>30</v>
       </c>
       <c r="D3" s="3">
@@ -3780,7 +3783,7 @@
       <c r="F3" s="3">
         <v>15246</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3788,10 +3791,10 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>40</v>
       </c>
       <c r="D4" s="3">
@@ -3803,7 +3806,7 @@
       <c r="F4" s="3">
         <v>53092</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="33" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3826,7 +3829,7 @@
       <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3873,7 +3876,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3919,7 +3922,7 @@
       <c r="F3" s="4">
         <v>33338</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="47" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3942,7 +3945,7 @@
       <c r="F4" s="4">
         <v>5012</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="47" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4011,7 +4014,7 @@
       <c r="F7" s="3">
         <v>560</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="48" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4129,7 +4132,7 @@
       <c r="F12" s="4">
         <v>100</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4152,7 +4155,7 @@
       <c r="F13" s="4">
         <v>1188</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="49" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4175,7 +4178,7 @@
       <c r="F14" s="4">
         <v>7900</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="49" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4244,7 +4247,7 @@
       <c r="F17" s="4">
         <v>133</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="48" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4350,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4379,19 +4382,19 @@
       <c r="D1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>102</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -4418,10 +4421,10 @@
       <c r="Q1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -4887,61 +4890,61 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>204</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
-        <v>1</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0</v>
-      </c>
-      <c r="R9" s="18">
-        <v>0</v>
-      </c>
-      <c r="S9" s="18">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <v>1</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
         <v>0</v>
       </c>
       <c r="T9" s="3">
@@ -4952,61 +4955,61 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>205</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="18">
-        <v>1</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18">
+      <c r="M10" s="17">
+        <v>1</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17">
         <v>0</v>
       </c>
       <c r="T10" s="3">
@@ -5017,61 +5020,61 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>206</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
         <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="18">
-        <v>1</v>
-      </c>
-      <c r="O11" s="18">
-        <v>0</v>
-      </c>
-      <c r="P11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <v>0</v>
-      </c>
-      <c r="S11" s="18">
+      <c r="N11" s="17">
+        <v>1</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
         <v>0</v>
       </c>
       <c r="T11" s="3">
@@ -5414,59 +5417,59 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="3:21">
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="25"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="3:21">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="25"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="3:21">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="25"/>
-      <c r="U21" s="21"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="24"/>
+      <c r="U21" s="20"/>
     </row>
     <row r="22" spans="3:21">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="3:21">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="E23" s="19"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="1"/>
@@ -5496,29 +5499,29 @@
     <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5550,7 +5553,7 @@
         <f>1/G2</f>
         <v>6.1728395061728392E-3</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5582,7 +5585,7 @@
         <f t="shared" ref="H3:H6" si="2">1/G3</f>
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5614,7 +5617,7 @@
         <f t="shared" si="2"/>
         <v>3.1545741324921135E-3</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5646,7 +5649,7 @@
         <f t="shared" si="2"/>
         <v>1.5797788309636651E-3</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5678,7 +5681,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5727,7 +5730,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5750,7 +5753,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="3">
@@ -5775,7 +5778,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="3">
@@ -5800,7 +5803,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3">
@@ -5825,7 +5828,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="3">
@@ -5850,7 +5853,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="3">
@@ -5893,7 +5896,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5904,7 +5907,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14"/>
+      <c r="A1" s="13"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
@@ -6158,8 +6161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6351,8 +6354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6381,228 +6384,228 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="50">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50">
         <v>87</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="52" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17">
         <v>87</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
         <v>87</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="51" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
         <v>87</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="51" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
+      <c r="C6" s="50">
         <v>87</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="51" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7" s="50">
+        <v>1</v>
+      </c>
+      <c r="C7" s="50">
         <v>87</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8" s="50">
+        <v>1</v>
+      </c>
+      <c r="C8" s="50">
         <v>87</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17">
         <v>87</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="51" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
         <v>87</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="51" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17">
         <v>87</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="51" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
         <v>87</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="52" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
         <v>87</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="52" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17">
         <v>87</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="50"/>
+      <c r="D21" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6615,7 +6618,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6646,7 +6649,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6692,7 +6695,7 @@
       <c r="F3" s="4">
         <v>33338</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6715,7 +6718,7 @@
       <c r="F4" s="4">
         <v>5012</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="38" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6784,7 +6787,7 @@
       <c r="F7" s="3">
         <v>560</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6923,7 +6926,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6946,7 +6949,7 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6969,7 +6972,7 @@
       <c r="F3" s="4">
         <v>1188</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6992,7 +6995,7 @@
       <c r="F4" s="4">
         <v>7900</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7061,7 +7064,7 @@
       <c r="F7" s="4">
         <v>133</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7197,7 +7200,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7220,7 +7223,7 @@
       <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7243,7 +7246,7 @@
       <c r="F3" s="4">
         <v>950</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7266,7 +7269,7 @@
       <c r="F4" s="4">
         <v>4151</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7335,7 +7338,7 @@
       <c r="F7" s="4">
         <v>68</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>106</v>
       </c>
     </row>
